--- a/documentations/2020 coordination sheet.xlsx
+++ b/documentations/2020 coordination sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagbc\Documents\GitHub\2020_prod_robot\documentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\Robotics\2021 Season\2021prod_robot\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC98894-EFC9-489D-A3C2-D2FAD46BADF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA14443-8C7E-4561-986C-8A15F41AED9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor, Sensor Joystick" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="223">
   <si>
     <t>Relay Function Chart</t>
   </si>
@@ -749,9 +749,6 @@
     <t>mini CIM</t>
   </si>
   <si>
-    <t>CIM or falcon</t>
-  </si>
-  <si>
     <t>Distance sensor</t>
   </si>
   <si>
@@ -990,6 +987,15 @@
   </si>
   <si>
     <t>ID-13</t>
+  </si>
+  <si>
+    <t>Ball shooter slave</t>
+  </si>
+  <si>
+    <t>falcon</t>
+  </si>
+  <si>
+    <t>ID-5</t>
   </si>
 </sst>
 </file>
@@ -2022,13 +2028,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2061,14 +2067,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>3394</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>3395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2104,13 +2110,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2126,8 +2132,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13440555" y="10391464"/>
-          <a:ext cx="1742451" cy="1695918"/>
+          <a:off x="14405389" y="10080074"/>
+          <a:ext cx="1851302" cy="1624634"/>
           <a:chOff x="10410824" y="9220200"/>
           <a:chExt cx="1771651" cy="1933575"/>
         </a:xfrm>
@@ -3619,27 +3625,27 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="61" zoomScaleNormal="128" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="128" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="86" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.73046875" style="86" customWidth="1"/>
+    <col min="4" max="4" width="14.73046875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.73046875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="30.7109375" style="18" customWidth="1"/>
-    <col min="12" max="13" width="11.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.1328125" style="1"/>
+    <col min="11" max="11" width="30.73046875" style="18" customWidth="1"/>
+    <col min="12" max="13" width="11.73046875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3651,13 +3657,13 @@
       </c>
       <c r="E1" s="110"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="14.65" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" s="16" customFormat="1" ht="63.75" thickTop="1">
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="61.15" thickTop="1">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="24">
+    <row r="5" spans="1:13" ht="23.25">
       <c r="A5" s="3" t="s">
         <v>120</v>
       </c>
@@ -3739,7 +3745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24">
+    <row r="6" spans="1:13" ht="23.25">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
@@ -3762,7 +3768,7 @@
         <v>9</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="10">
         <v>40</v>
@@ -3842,7 +3848,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I8" s="10">
         <v>40</v>
@@ -3869,7 +3875,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>26</v>
@@ -3881,7 +3887,7 @@
         <v>98</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="10">
         <v>30</v>
@@ -3893,10 +3899,10 @@
         <v>129</v>
       </c>
       <c r="L9" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3910,19 +3916,19 @@
         <v>27</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="10">
         <v>30</v>
@@ -3934,16 +3940,16 @@
         <v>129</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="24">
+    <row r="11" spans="1:13" ht="23.25">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="C11" s="88" t="s">
         <v>27</v>
@@ -3955,10 +3961,10 @@
         <v>127</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>99</v>
@@ -3967,58 +3973,52 @@
         <v>40</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="24">
+    <row r="12" spans="1:13" ht="23.25">
       <c r="A12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>139</v>
+        <v>220</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="C12" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>159</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>129</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K12" s="12"/>
       <c r="L12" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>139</v>
@@ -4027,220 +4027,234 @@
         <v>27</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="41" t="s">
-        <v>148</v>
+      <c r="F13" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I13" s="10">
         <v>30</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>5</v>
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C14" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33" t="s">
+      <c r="D14" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="33">
-        <v>40</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>12</v>
+      <c r="F14" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="10">
+        <v>30</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="34"/>
+      <c r="E15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="42">
+      <c r="F15" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="33">
         <v>40</v>
       </c>
-      <c r="J15" s="42" t="s">
+      <c r="J15" s="33" t="s">
         <v>12</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>129</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="42">
+        <v>40</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F16" s="112" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="112">
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="112">
         <v>40</v>
       </c>
-      <c r="J16" s="112" t="s">
+      <c r="J17" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="84"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="2" t="s">
+      <c r="K17" s="84"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickTop="1" thickBot="1">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="26"/>
-    </row>
-    <row r="18" spans="1:13" s="16" customFormat="1" ht="79.5" thickTop="1">
-      <c r="A18" s="7" t="s">
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" s="16" customFormat="1" ht="74.650000000000006" thickTop="1">
+      <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C19" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E19" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M19" s="22" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>127</v>
@@ -4254,23 +4268,23 @@
       <c r="K20" s="12"/>
       <c r="L20" s="10"/>
       <c r="M20" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="90"/>
+        <v>165</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>97</v>
+      </c>
       <c r="D21" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>39</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E21" s="25"/>
       <c r="F21" s="14"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -4279,22 +4293,22 @@
       <c r="K21" s="12"/>
       <c r="L21" s="10"/>
       <c r="M21" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>126</v>
+      </c>
+      <c r="C22" s="90"/>
+      <c r="D22" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="E22" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="10"/>
@@ -4304,22 +4318,22 @@
       <c r="K22" s="12"/>
       <c r="L22" s="10"/>
       <c r="M22" s="23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="90" t="s">
         <v>79</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="10"/>
@@ -4328,25 +4342,25 @@
       <c r="J23" s="10"/>
       <c r="K23" s="12"/>
       <c r="L23" s="10"/>
-      <c r="M23" s="23"/>
+      <c r="M23" s="23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="102" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="90" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>171</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="10"/>
       <c r="E24" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="F24" s="14"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -4357,21 +4371,21 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="102" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -4380,121 +4394,121 @@
       <c r="L25" s="10"/>
       <c r="M25" s="23"/>
     </row>
-    <row r="26" spans="1:13" s="70" customFormat="1">
-      <c r="A26" s="111" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:13" s="70" customFormat="1">
+      <c r="A27" s="111" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="C27" s="91" t="s">
         <v>177</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="69"/>
-    </row>
-    <row r="27" spans="1:13" s="70" customFormat="1">
-      <c r="A27" s="103" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="91" t="s">
-        <v>181</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>101</v>
       </c>
       <c r="E27" s="66" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F27" s="67"/>
       <c r="G27" s="65"/>
       <c r="H27" s="65"/>
       <c r="I27" s="65"/>
       <c r="J27" s="65"/>
-      <c r="K27" s="71"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="65"/>
       <c r="M27" s="69"/>
     </row>
-    <row r="28" spans="1:13" s="77" customFormat="1">
-      <c r="A28" s="83" t="s">
+    <row r="28" spans="1:13" s="70" customFormat="1">
+      <c r="A28" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="69"/>
+    </row>
+    <row r="29" spans="1:13" s="77" customFormat="1">
+      <c r="A29" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="C29" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="92" t="s">
-        <v>181</v>
-      </c>
-      <c r="D28" s="72" t="s">
+      <c r="E29" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="74"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="76"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="74"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="76"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="102" t="s">
+      <c r="B30" s="112" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="112" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="107" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="41" t="s">
+      <c r="D30" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="108" t="s">
+      <c r="E30" s="108" t="s">
         <v>83</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="10"/>
@@ -4506,12 +4520,20 @@
       <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="3"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="10"/>
+      <c r="A31" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="E31" s="25" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="10"/>
@@ -4527,7 +4549,9 @@
       <c r="B32" s="10"/>
       <c r="C32" s="90"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="38"/>
+      <c r="E32" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
@@ -4537,12 +4561,12 @@
       <c r="L32" s="10"/>
       <c r="M32" s="23"/>
     </row>
-    <row r="33" spans="1:13" hidden="1">
+    <row r="33" spans="1:13">
       <c r="A33" s="3"/>
       <c r="B33" s="10"/>
       <c r="C33" s="90"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="14"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -4567,7 +4591,7 @@
       <c r="L34" s="10"/>
       <c r="M34" s="23"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="3"/>
       <c r="B35" s="10"/>
       <c r="C35" s="90"/>
@@ -4580,100 +4604,95 @@
       <c r="J35" s="10"/>
       <c r="K35" s="12"/>
       <c r="L35" s="10"/>
-      <c r="M35" s="50"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A36" s="5"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75" hidden="1" thickTop="1">
-      <c r="D37" s="1"/>
-      <c r="L37" s="80"/>
-    </row>
-    <row r="38" spans="1:13" ht="15.75" hidden="1" thickBot="1">
-      <c r="A38" s="2" t="s">
+      <c r="M35" s="23"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="3"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="50"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.65" thickBot="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.65" hidden="1" thickTop="1">
+      <c r="D38" s="1"/>
+      <c r="L38" s="80"/>
+    </row>
+    <row r="39" spans="1:13" ht="14.65" hidden="1" thickBot="1">
+      <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="29"/>
-    </row>
-    <row r="39" spans="1:13" ht="102" hidden="1" thickTop="1">
-      <c r="A39" s="21" t="s">
+      <c r="E39" s="18"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="29"/>
+    </row>
+    <row r="40" spans="1:13" ht="85.15" hidden="1" thickTop="1">
+      <c r="A40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C40" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9" t="s">
+      <c r="F40" s="8"/>
+      <c r="G40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="27" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K40" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L39" s="31"/>
-    </row>
-    <row r="40" spans="1:13" hidden="1">
-      <c r="A40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="4"/>
+      <c r="L40" s="31"/>
     </row>
     <row r="41" spans="1:13" hidden="1">
       <c r="A41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="88"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -4683,17 +4702,17 @@
     </row>
     <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="3" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="88"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -4703,17 +4722,17 @@
     </row>
     <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="88"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -4723,17 +4742,17 @@
     </row>
     <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="B44" s="12"/>
       <c r="C44" s="88"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -4743,17 +4762,17 @@
     </row>
     <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="88"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -4762,20 +4781,26 @@
       <c r="L45" s="4"/>
     </row>
     <row r="46" spans="1:13" hidden="1">
-      <c r="A46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="B46" s="10"/>
       <c r="C46" s="88"/>
       <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="E46" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="G46" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:13" hidden="1">
       <c r="A47" s="3"/>
       <c r="B47" s="10"/>
       <c r="C47" s="88"/>
@@ -4789,83 +4814,83 @@
       <c r="K47" s="10"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:13" ht="16.5" hidden="1" thickTop="1" thickBot="1">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:13" ht="14.65" hidden="1" thickBot="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:14" ht="15" hidden="1" thickTop="1" thickBot="1">
+      <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="26"/>
-    </row>
-    <row r="49" spans="1:14" ht="113.25" hidden="1" thickTop="1">
-      <c r="A49" s="21" t="s">
+      <c r="E49" s="18"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:14" ht="87" hidden="1" thickTop="1">
+      <c r="A50" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="87" t="s">
+      <c r="C50" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="9" t="s">
+      <c r="F50" s="8"/>
+      <c r="G50" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="27" t="s">
+      <c r="H50" s="9"/>
+      <c r="I50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J50" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="8" t="s">
+      <c r="K50" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L49" s="31"/>
-    </row>
-    <row r="50" spans="1:14" hidden="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10">
-        <v>12</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="4"/>
+      <c r="L50" s="31"/>
     </row>
     <row r="51" spans="1:14" hidden="1">
       <c r="A51" s="3"/>
       <c r="B51" s="12"/>
       <c r="C51" s="88"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="J51" s="10">
+        <v>12</v>
+      </c>
       <c r="K51" s="10"/>
       <c r="L51" s="4"/>
     </row>
     <row r="52" spans="1:14" hidden="1">
-      <c r="A52" s="102"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="104"/>
+      <c r="A52" s="3"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="88"/>
+      <c r="D52" s="12"/>
       <c r="E52" s="104"/>
       <c r="F52" s="106"/>
       <c r="G52" s="106"/>
@@ -4876,13 +4901,13 @@
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:14" hidden="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -4891,7 +4916,7 @@
     </row>
     <row r="54" spans="1:14" hidden="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="10"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="88"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -4945,170 +4970,164 @@
       <c r="K57" s="10"/>
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" hidden="1" thickBot="1">
-      <c r="A58" s="5"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" thickTop="1"/>
-    <row r="61" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61" s="94"/>
-      <c r="D61"/>
-      <c r="E61" s="55"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-    </row>
-    <row r="62" spans="1:14" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A62" s="44" t="s">
+    <row r="58" spans="1:14" hidden="1">
+      <c r="A58" s="3"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="1:14" ht="14.65" hidden="1" thickBot="1">
+      <c r="A59" s="5"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:14" ht="14.65" thickTop="1"/>
+    <row r="62" spans="1:14" ht="14.65" thickBot="1">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62" s="94"/>
+      <c r="D62"/>
+      <c r="E62" s="55"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+    </row>
+    <row r="63" spans="1:14" ht="15" thickTop="1" thickBot="1">
+      <c r="A63" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="60"/>
-      <c r="L62"/>
-    </row>
-    <row r="63" spans="1:14" ht="15.75" thickTop="1">
-      <c r="A63" s="8" t="s">
+      <c r="B63" s="26"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="60"/>
+      <c r="L63"/>
+    </row>
+    <row r="64" spans="1:14" ht="14.65" thickTop="1">
+      <c r="A64" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C63" s="85" t="s">
+      <c r="C64" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G63" s="48" t="s">
+      <c r="G64" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H63" s="8" t="s">
+      <c r="H64" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="61"/>
-      <c r="L63"/>
-    </row>
-    <row r="64" spans="1:14" ht="30">
-      <c r="A64" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B64" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="56"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="123" t="s">
-        <v>91</v>
-      </c>
-      <c r="M64" s="124" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="30">
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="61"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:15" ht="28.5">
       <c r="A65" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C65" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="36"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="123"/>
-      <c r="M65" s="124"/>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="C65" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="56"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="M65" s="125" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="28.5">
       <c r="A66" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="97">
-        <v>1</v>
-      </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="C66" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="36"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
-      <c r="J66" s="53"/>
+      <c r="J66" s="41"/>
       <c r="K66" s="63"/>
-      <c r="L66"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="125"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" s="98">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="C67" s="97">
+        <v>1</v>
       </c>
       <c r="D67" s="52"/>
-      <c r="E67" s="56"/>
+      <c r="E67" s="41"/>
       <c r="F67" s="45"/>
-      <c r="G67" s="41"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
+      <c r="J67" s="53"/>
       <c r="K67" s="63"/>
       <c r="L67"/>
     </row>
@@ -5117,10 +5136,10 @@
         <v>86</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C68" s="98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="56"/>
@@ -5137,10 +5156,10 @@
         <v>86</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" s="99">
-        <v>4</v>
+        <v>191</v>
+      </c>
+      <c r="C69" s="98">
+        <v>3</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="56"/>
@@ -5157,10 +5176,10 @@
         <v>86</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C70" s="99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="56"/>
@@ -5170,41 +5189,41 @@
       <c r="I70" s="41"/>
       <c r="J70" s="41"/>
       <c r="K70" s="63"/>
-      <c r="L70" s="46"/>
+      <c r="L70"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C71" s="99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="52"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="41"/>
       <c r="J71" s="41"/>
       <c r="K71" s="63"/>
-      <c r="L71"/>
+      <c r="L71" s="46"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C72" s="99">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D72" s="52"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="41"/>
       <c r="I72" s="41"/>
@@ -5216,123 +5235,120 @@
       <c r="A73" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="43"/>
+      <c r="B73" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="99">
+        <v>8</v>
+      </c>
+      <c r="D73" s="52"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="10"/>
       <c r="H73" s="41"/>
       <c r="I73" s="41"/>
       <c r="J73" s="41"/>
       <c r="K73" s="63"/>
       <c r="L73"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="43"/>
+      <c r="A74" s="43" t="s">
+        <v>86</v>
+      </c>
       <c r="B74" s="45"/>
       <c r="C74" s="99"/>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
+      <c r="G74" s="43"/>
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
       <c r="K74" s="63"/>
       <c r="L74"/>
-    </row>
-    <row r="75" spans="1:15" ht="15.75">
-      <c r="A75" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="C75" s="99">
-        <v>1</v>
-      </c>
-      <c r="D75" s="36"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="43"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="99"/>
+      <c r="D75" s="41"/>
       <c r="E75" s="41"/>
-      <c r="H75" s="113"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
       <c r="K75" s="63"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="1:15" ht="16.5" thickBot="1">
+    <row r="76" spans="1:15" ht="15.4">
       <c r="A76" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="88">
-        <v>2</v>
-      </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="59"/>
+      <c r="B76" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="99">
+        <v>1</v>
+      </c>
+      <c r="D76" s="36"/>
+      <c r="E76" s="41"/>
       <c r="H76" s="113"/>
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
       <c r="K76" s="63"/>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75">
+    <row r="77" spans="1:15" ht="15.75" thickBot="1">
       <c r="A77" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="99">
-        <v>3</v>
+      <c r="B77" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="88">
+        <v>2</v>
       </c>
       <c r="D77" s="41"/>
-      <c r="E77" s="40"/>
+      <c r="E77" s="59"/>
       <c r="H77" s="113"/>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
       <c r="K77" s="63"/>
       <c r="L77"/>
-      <c r="M77" s="115" t="s">
-        <v>218</v>
-      </c>
-      <c r="N77" s="116"/>
-      <c r="O77" s="117"/>
-    </row>
-    <row r="78" spans="1:15" ht="15.75">
+    </row>
+    <row r="78" spans="1:15" ht="15.4">
       <c r="A78" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" s="88">
-        <v>4</v>
+      <c r="B78" s="41"/>
+      <c r="C78" s="99">
+        <v>3</v>
       </c>
       <c r="D78" s="41"/>
-      <c r="E78" s="57"/>
+      <c r="E78" s="40"/>
       <c r="H78" s="113"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
       <c r="K78" s="63"/>
       <c r="L78"/>
-      <c r="M78" s="118" t="s">
-        <v>197</v>
-      </c>
-      <c r="N78" s="41"/>
-      <c r="O78" s="119"/>
-    </row>
-    <row r="79" spans="1:15" ht="15.75">
+      <c r="M78" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="N78" s="116"/>
+      <c r="O78" s="117"/>
+    </row>
+    <row r="79" spans="1:15" ht="15.4">
       <c r="A79" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C79" s="88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="57"/>
@@ -5342,89 +5358,89 @@
       <c r="K79" s="63"/>
       <c r="L79"/>
       <c r="M79" s="118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N79" s="41"/>
       <c r="O79" s="119"/>
     </row>
-    <row r="80" spans="1:15" ht="15.75">
+    <row r="80" spans="1:15" ht="15.4">
       <c r="A80" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B80" s="114" t="s">
-        <v>210</v>
+      <c r="B80" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="C80" s="88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="57"/>
       <c r="H80" s="113"/>
       <c r="I80" s="41"/>
       <c r="J80" s="41"/>
       <c r="K80" s="63"/>
       <c r="L80"/>
       <c r="M80" s="118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N80" s="41"/>
       <c r="O80" s="119"/>
     </row>
-    <row r="81" spans="1:15" ht="15.75">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:15" ht="15.4">
+      <c r="A81" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B81" s="114" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C81" s="88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81" s="41"/>
-      <c r="E81" s="36"/>
+      <c r="E81" s="41"/>
       <c r="H81" s="113"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
       <c r="K81" s="63"/>
       <c r="L81"/>
       <c r="M81" s="118" t="s">
-        <v>200</v>
-      </c>
-      <c r="N81" s="10"/>
+        <v>198</v>
+      </c>
+      <c r="N81" s="41"/>
       <c r="O81" s="119"/>
     </row>
-    <row r="82" spans="1:15" ht="15.75">
-      <c r="A82" s="43" t="s">
+    <row r="82" spans="1:15" ht="15.4">
+      <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B82" s="114" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C82" s="88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="36"/>
       <c r="H82" s="113"/>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
       <c r="K82" s="63"/>
       <c r="L82"/>
       <c r="M82" s="118" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="119"/>
     </row>
-    <row r="83" spans="1:15" ht="15.75">
+    <row r="83" spans="1:15" ht="15.4">
       <c r="A83" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B83" s="114" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C83" s="88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
@@ -5434,20 +5450,20 @@
       <c r="K83" s="63"/>
       <c r="L83"/>
       <c r="M83" s="118" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="119"/>
     </row>
-    <row r="84" spans="1:15" ht="15.75">
+    <row r="84" spans="1:15" ht="15.4">
       <c r="A84" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B84" s="114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C84" s="88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
@@ -5457,43 +5473,43 @@
       <c r="K84" s="63"/>
       <c r="L84"/>
       <c r="M84" s="118" t="s">
-        <v>203</v>
-      </c>
-      <c r="N84" s="54"/>
+        <v>201</v>
+      </c>
+      <c r="N84" s="10"/>
       <c r="O84" s="119"/>
     </row>
-    <row r="85" spans="1:15" ht="15.75">
+    <row r="85" spans="1:15" ht="15.4">
       <c r="A85" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="114" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C85" s="88">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
-      <c r="H85" s="41"/>
+      <c r="H85" s="113"/>
       <c r="I85" s="41"/>
       <c r="J85" s="41"/>
       <c r="K85" s="63"/>
       <c r="L85"/>
       <c r="M85" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="N85" s="41"/>
+        <v>202</v>
+      </c>
+      <c r="N85" s="54"/>
       <c r="O85" s="119"/>
     </row>
-    <row r="86" spans="1:15" ht="15.75">
+    <row r="86" spans="1:15" ht="15.4">
       <c r="A86" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C86" s="88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
@@ -5503,15 +5519,21 @@
       <c r="K86" s="63"/>
       <c r="L86"/>
       <c r="M86" s="118" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="N86" s="41"/>
       <c r="O86" s="119"/>
     </row>
-    <row r="87" spans="1:15" ht="15.75">
-      <c r="A87" s="43"/>
-      <c r="B87" s="41"/>
-      <c r="C87" s="99"/>
+    <row r="87" spans="1:15" ht="15.4">
+      <c r="A87" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="88">
+        <v>3</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
       <c r="H87" s="41"/>
@@ -5520,57 +5542,61 @@
       <c r="K87" s="63"/>
       <c r="L87"/>
       <c r="M87" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="N87" s="80"/>
+        <v>204</v>
+      </c>
+      <c r="N87" s="41"/>
       <c r="O87" s="119"/>
     </row>
-    <row r="88" spans="1:15" ht="15.75" thickBot="1">
+    <row r="88" spans="1:15" ht="15.4">
       <c r="A88" s="43"/>
-      <c r="B88" s="45"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="99"/>
-      <c r="D88" s="36"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="41"/>
       <c r="H88" s="41"/>
       <c r="I88" s="41"/>
       <c r="J88" s="41"/>
       <c r="K88" s="63"/>
       <c r="L88"/>
-      <c r="M88" s="120"/>
-      <c r="N88" s="121"/>
-      <c r="O88" s="122"/>
-    </row>
-    <row r="89" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A89" s="49"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="100"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="42"/>
-      <c r="G89" s="42"/>
-      <c r="H89" s="42"/>
-      <c r="I89" s="42"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="64"/>
+      <c r="M88" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="N88" s="80"/>
+      <c r="O88" s="119"/>
+    </row>
+    <row r="89" spans="1:15" ht="14.65" thickBot="1">
+      <c r="A89" s="43"/>
+      <c r="B89" s="45"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="63"/>
       <c r="L89"/>
-    </row>
-    <row r="90" spans="1:15" ht="15.75" thickTop="1">
-      <c r="A90" s="2"/>
-      <c r="D90" s="1"/>
-      <c r="K90" s="79"/>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="80"/>
-      <c r="B91" s="80"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="84"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="80"/>
-      <c r="H91" s="80"/>
-      <c r="I91" s="80"/>
-      <c r="K91" s="80"/>
-      <c r="L91" s="80"/>
+      <c r="M89" s="120"/>
+      <c r="N89" s="121"/>
+      <c r="O89" s="122"/>
+    </row>
+    <row r="90" spans="1:15" ht="14.65" thickBot="1">
+      <c r="A90" s="49"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="64"/>
+      <c r="L90"/>
+    </row>
+    <row r="91" spans="1:15" ht="14.65" thickTop="1">
+      <c r="A91" s="2"/>
+      <c r="D91" s="1"/>
+      <c r="K91" s="79"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="80"/>
@@ -5582,15 +5608,22 @@
       <c r="G92" s="80"/>
       <c r="H92" s="80"/>
       <c r="I92" s="80"/>
-      <c r="J92" s="80"/>
       <c r="K92" s="80"/>
       <c r="L92" s="80"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="D93" s="79"/>
-      <c r="E93" s="79"/>
-      <c r="K93" s="1"/>
-      <c r="N93"/>
+      <c r="A93" s="80"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="80"/>
+      <c r="H93" s="80"/>
+      <c r="I93" s="80"/>
+      <c r="J93" s="80"/>
+      <c r="K93" s="80"/>
+      <c r="L93" s="80"/>
     </row>
     <row r="94" spans="1:15">
       <c r="D94" s="79"/>
@@ -5605,19 +5638,9 @@
       <c r="N95"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96"/>
-      <c r="B96"/>
-      <c r="C96" s="94"/>
-      <c r="D96"/>
-      <c r="E96" s="55"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-      <c r="M96"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="K96" s="1"/>
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14">
@@ -5796,20 +5819,36 @@
       <c r="M107"/>
       <c r="N107"/>
     </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="1" t="s">
+    <row r="108" spans="1:14">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108" s="94"/>
+      <c r="D108"/>
+      <c r="E108" s="55"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="2" t="s">
+    <row r="111" spans="1:14">
+      <c r="A111" s="2" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
@@ -5818,7 +5857,7 @@
     <oddFooter>&amp;R&amp;8&amp;F</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="58" max="16383" man="1"/>
+    <brk id="59" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5832,7 +5871,7 @@
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/documentations/2020 coordination sheet.xlsx
+++ b/documentations/2020 coordination sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Desktop\Robotics\2021 Season\2021prod_robot\documentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Desktop\Senior Year\Programming\2021prod_robot\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA14443-8C7E-4561-986C-8A15F41AED9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39F238E-EE0A-4890-A9F1-965CCC0490F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Motor, Sensor Joystick" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="225">
   <si>
     <t>Relay Function Chart</t>
   </si>
@@ -996,6 +996,12 @@
   </si>
   <si>
     <t>ID-5</t>
+  </si>
+  <si>
+    <t>Turret motor</t>
+  </si>
+  <si>
+    <t>ID-17</t>
   </si>
 </sst>
 </file>
@@ -2067,13 +2073,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>3395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2110,13 +2116,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2132,8 +2138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14405389" y="10080074"/>
-          <a:ext cx="1851302" cy="1624634"/>
+          <a:off x="14090001" y="10517869"/>
+          <a:ext cx="1813833" cy="1642382"/>
           <a:chOff x="10410824" y="9220200"/>
           <a:chExt cx="1771651" cy="1933575"/>
         </a:xfrm>
@@ -3625,27 +3631,27 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="128" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="128" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.73046875" style="86" customWidth="1"/>
-    <col min="4" max="4" width="14.73046875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="86" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1328125" style="1"/>
-    <col min="11" max="11" width="30.73046875" style="18" customWidth="1"/>
-    <col min="12" max="13" width="11.73046875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="1"/>
+    <col min="10" max="10" width="9.08984375" style="1"/>
+    <col min="11" max="11" width="30.7265625" style="18" customWidth="1"/>
+    <col min="12" max="13" width="11.7265625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3657,13 +3663,13 @@
       </c>
       <c r="E1" s="110"/>
     </row>
-    <row r="3" spans="1:13" ht="14.65" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" s="16" customFormat="1" ht="61.15" thickTop="1">
+    <row r="4" spans="1:13" s="16" customFormat="1" ht="63" thickTop="1">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="23.25">
+    <row r="5" spans="1:13" ht="24">
       <c r="A5" s="3" t="s">
         <v>120</v>
       </c>
@@ -3745,7 +3751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="23.25">
+    <row r="6" spans="1:13" ht="24">
       <c r="A6" s="3" t="s">
         <v>121</v>
       </c>
@@ -3944,7 +3950,7 @@
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" ht="23.25">
+    <row r="11" spans="1:13" ht="24">
       <c r="A11" s="3" t="s">
         <v>133</v>
       </c>
@@ -3983,7 +3989,7 @@
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" ht="23.25">
+    <row r="12" spans="1:13" ht="24">
       <c r="A12" s="3" t="s">
         <v>220</v>
       </c>
@@ -4170,7 +4176,7 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="80" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>127</v>
@@ -4179,107 +4185,109 @@
         <v>27</v>
       </c>
       <c r="D17" s="123" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>127</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G17" s="80"/>
       <c r="H17" s="80"/>
-      <c r="I17" s="112">
-        <v>40</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>12</v>
-      </c>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
       <c r="K17" s="84"/>
       <c r="L17" s="80"/>
       <c r="M17" s="80"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickTop="1" thickBot="1">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:13" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A18" s="80" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="112">
+        <v>40</v>
+      </c>
+      <c r="J18" s="112" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="84"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="26"/>
-    </row>
-    <row r="19" spans="1:13" s="16" customFormat="1" ht="74.650000000000006" thickTop="1">
-      <c r="A19" s="7" t="s">
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:13" s="16" customFormat="1" ht="75.5" thickTop="1">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B20" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C20" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E20" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="27" t="s">
+      <c r="K20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M20" s="22" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="88" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="23" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>165</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>127</v>
@@ -4293,23 +4301,23 @@
       <c r="K21" s="12"/>
       <c r="L21" s="10"/>
       <c r="M21" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="90"/>
+        <v>165</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>97</v>
+      </c>
       <c r="D22" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>39</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E22" s="25"/>
       <c r="F22" s="14"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -4318,22 +4326,22 @@
       <c r="K22" s="12"/>
       <c r="L22" s="10"/>
       <c r="M22" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="10"/>
+        <v>126</v>
+      </c>
+      <c r="C23" s="90"/>
+      <c r="D23" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="10"/>
@@ -4343,22 +4351,22 @@
       <c r="K23" s="12"/>
       <c r="L23" s="10"/>
       <c r="M23" s="23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="102" t="s">
+      <c r="A24" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="90" t="s">
         <v>79</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="25" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="10"/>
@@ -4367,25 +4375,25 @@
       <c r="J24" s="10"/>
       <c r="K24" s="12"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="23"/>
+      <c r="M24" s="23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="102" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="90" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>170</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C25" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="F25" s="14"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -4396,21 +4404,21 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="102" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4419,121 +4427,121 @@
       <c r="L26" s="10"/>
       <c r="M26" s="23"/>
     </row>
-    <row r="27" spans="1:13" s="70" customFormat="1">
-      <c r="A27" s="111" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" s="102" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="1:13" s="70" customFormat="1">
+      <c r="A28" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B28" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C28" s="91" t="s">
         <v>177</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="69"/>
-    </row>
-    <row r="28" spans="1:13" s="70" customFormat="1">
-      <c r="A28" s="103" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="91" t="s">
-        <v>180</v>
       </c>
       <c r="D28" s="65" t="s">
         <v>101</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" s="67"/>
       <c r="G28" s="65"/>
       <c r="H28" s="65"/>
       <c r="I28" s="65"/>
       <c r="J28" s="65"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="65"/>
       <c r="M28" s="69"/>
     </row>
-    <row r="29" spans="1:13" s="77" customFormat="1">
-      <c r="A29" s="83" t="s">
+    <row r="29" spans="1:13" s="70" customFormat="1">
+      <c r="A29" s="103" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="69"/>
+    </row>
+    <row r="30" spans="1:13" s="77" customFormat="1">
+      <c r="A30" s="83" t="s">
         <v>181</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B30" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C30" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D30" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E30" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="76"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="102" t="s">
+      <c r="F30" s="74"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="76"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="B31" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C31" s="107" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D31" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="108" t="s">
+      <c r="E31" s="108" t="s">
         <v>83</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="90" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>47</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="10"/>
@@ -4545,12 +4553,20 @@
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="3"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>101</v>
+      </c>
       <c r="E32" s="25" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="10"/>
@@ -4566,7 +4582,9 @@
       <c r="B33" s="10"/>
       <c r="C33" s="90"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -4576,12 +4594,12 @@
       <c r="L33" s="10"/>
       <c r="M33" s="23"/>
     </row>
-    <row r="34" spans="1:13" hidden="1">
+    <row r="34" spans="1:13">
       <c r="A34" s="3"/>
       <c r="B34" s="10"/>
       <c r="C34" s="90"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="25"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="14"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
@@ -4606,7 +4624,7 @@
       <c r="L35" s="10"/>
       <c r="M35" s="23"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" hidden="1">
       <c r="A36" s="3"/>
       <c r="B36" s="10"/>
       <c r="C36" s="90"/>
@@ -4619,100 +4637,95 @@
       <c r="J36" s="10"/>
       <c r="K36" s="12"/>
       <c r="L36" s="10"/>
-      <c r="M36" s="50"/>
-    </row>
-    <row r="37" spans="1:13" ht="14.65" thickBot="1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="1:13" ht="14.65" hidden="1" thickTop="1">
-      <c r="D38" s="1"/>
-      <c r="L38" s="80"/>
-    </row>
-    <row r="39" spans="1:13" ht="14.65" hidden="1" thickBot="1">
-      <c r="A39" s="2" t="s">
+      <c r="M36" s="23"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="3"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="50"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" hidden="1" thickTop="1">
+      <c r="D39" s="1"/>
+      <c r="L39" s="80"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" hidden="1" thickBot="1">
+      <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="29"/>
-    </row>
-    <row r="40" spans="1:13" ht="85.15" hidden="1" thickTop="1">
-      <c r="A40" s="21" t="s">
+      <c r="E40" s="18"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="29"/>
+    </row>
+    <row r="41" spans="1:13" ht="86" hidden="1" thickTop="1">
+      <c r="A41" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C41" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="9" t="s">
+      <c r="F41" s="8"/>
+      <c r="G41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="27" t="s">
+      <c r="H41" s="9"/>
+      <c r="I41" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J41" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K41" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L40" s="31"/>
-    </row>
-    <row r="41" spans="1:13" hidden="1">
-      <c r="A41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="4"/>
+      <c r="L41" s="31"/>
     </row>
     <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="88"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -4722,17 +4735,17 @@
     </row>
     <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="3" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="88"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -4742,17 +4755,17 @@
     </row>
     <row r="44" spans="1:13" hidden="1">
       <c r="A44" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="88"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -4762,17 +4775,17 @@
     </row>
     <row r="45" spans="1:13" hidden="1">
       <c r="A45" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="B45" s="12"/>
       <c r="C45" s="88"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -4782,17 +4795,17 @@
     </row>
     <row r="46" spans="1:13" hidden="1">
       <c r="A46" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="88"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -4801,20 +4814,26 @@
       <c r="L46" s="4"/>
     </row>
     <row r="47" spans="1:13" hidden="1">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="B47" s="10"/>
       <c r="C47" s="88"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="E47" s="12" t="s">
+        <v>114</v>
+      </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="G47" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:13" ht="14.65" hidden="1" thickBot="1">
+    <row r="48" spans="1:13" hidden="1">
       <c r="A48" s="3"/>
       <c r="B48" s="10"/>
       <c r="C48" s="88"/>
@@ -4828,83 +4847,83 @@
       <c r="K48" s="10"/>
       <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="1:14" ht="15" hidden="1" thickTop="1" thickBot="1">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:14" ht="15" hidden="1" thickBot="1">
+      <c r="A49" s="3"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.5" hidden="1" thickTop="1" thickBot="1">
+      <c r="A50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="26"/>
-    </row>
-    <row r="50" spans="1:14" ht="87" hidden="1" thickTop="1">
-      <c r="A50" s="21" t="s">
+      <c r="E50" s="18"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:14" ht="101.5" hidden="1" thickTop="1">
+      <c r="A51" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="87" t="s">
+      <c r="C51" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="9" t="s">
+      <c r="F51" s="8"/>
+      <c r="G51" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="27" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J51" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="8" t="s">
+      <c r="K51" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L50" s="31"/>
-    </row>
-    <row r="51" spans="1:14" hidden="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10">
-        <v>12</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="4"/>
+      <c r="L51" s="31"/>
     </row>
     <row r="52" spans="1:14" hidden="1">
       <c r="A52" s="3"/>
       <c r="B52" s="12"/>
       <c r="C52" s="88"/>
       <c r="D52" s="12"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="J52" s="10">
+        <v>12</v>
+      </c>
       <c r="K52" s="10"/>
       <c r="L52" s="4"/>
     </row>
     <row r="53" spans="1:14" hidden="1">
-      <c r="A53" s="102"/>
-      <c r="B53" s="106"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="104"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="104"/>
       <c r="F53" s="106"/>
       <c r="G53" s="106"/>
@@ -4915,13 +4934,13 @@
       <c r="L53" s="4"/>
     </row>
     <row r="54" spans="1:14" hidden="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="105"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -4930,7 +4949,7 @@
     </row>
     <row r="55" spans="1:14" hidden="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="10"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="88"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -4984,170 +5003,164 @@
       <c r="K58" s="10"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="14.65" hidden="1" thickBot="1">
-      <c r="A59" s="5"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="1:14" ht="14.65" thickTop="1"/>
-    <row r="62" spans="1:14" ht="14.65" thickBot="1">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62" s="94"/>
-      <c r="D62"/>
-      <c r="E62" s="55"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-    </row>
-    <row r="63" spans="1:14" ht="15" thickTop="1" thickBot="1">
-      <c r="A63" s="44" t="s">
+    <row r="59" spans="1:14" hidden="1">
+      <c r="A59" s="3"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="1:14" ht="15" hidden="1" thickBot="1">
+      <c r="A60" s="5"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" ht="15" thickTop="1"/>
+    <row r="63" spans="1:14" ht="15" thickBot="1">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63" s="94"/>
+      <c r="D63"/>
+      <c r="E63" s="55"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.5" thickTop="1" thickBot="1">
+      <c r="A64" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="60"/>
-      <c r="L63"/>
-    </row>
-    <row r="64" spans="1:14" ht="14.65" thickTop="1">
-      <c r="A64" s="8" t="s">
+      <c r="B64" s="26"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="60"/>
+      <c r="L64"/>
+    </row>
+    <row r="65" spans="1:15" ht="15" thickTop="1">
+      <c r="A65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C65" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G64" s="48" t="s">
+      <c r="G65" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H65" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="61"/>
-      <c r="L64"/>
-    </row>
-    <row r="65" spans="1:15" ht="28.5">
-      <c r="A65" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="E65" s="56"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="124" t="s">
-        <v>91</v>
-      </c>
-      <c r="M65" s="125" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="28.5">
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="61"/>
+      <c r="L65"/>
+    </row>
+    <row r="66" spans="1:15" ht="29">
       <c r="A66" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E66" s="36"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="124"/>
-      <c r="M66" s="125"/>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="C66" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="E66" s="56"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="M66" s="125" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="29">
       <c r="A67" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="97">
-        <v>1</v>
-      </c>
-      <c r="D67" s="52"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="45"/>
-      <c r="G67" s="58"/>
+        <v>53</v>
+      </c>
+      <c r="C67" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
-      <c r="J67" s="53"/>
+      <c r="J67" s="41"/>
       <c r="K67" s="63"/>
-      <c r="L67"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="125"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="98">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="C68" s="97">
+        <v>1</v>
       </c>
       <c r="D68" s="52"/>
-      <c r="E68" s="56"/>
+      <c r="E68" s="41"/>
       <c r="F68" s="45"/>
-      <c r="G68" s="41"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
+      <c r="J68" s="53"/>
       <c r="K68" s="63"/>
       <c r="L68"/>
     </row>
@@ -5156,10 +5169,10 @@
         <v>86</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" s="98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="56"/>
@@ -5176,10 +5189,10 @@
         <v>86</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="99">
-        <v>4</v>
+        <v>191</v>
+      </c>
+      <c r="C70" s="98">
+        <v>3</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="56"/>
@@ -5196,10 +5209,10 @@
         <v>86</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C71" s="99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" s="52"/>
       <c r="E71" s="56"/>
@@ -5209,41 +5222,41 @@
       <c r="I71" s="41"/>
       <c r="J71" s="41"/>
       <c r="K71" s="63"/>
-      <c r="L71" s="46"/>
+      <c r="L71"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C72" s="99">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="52"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="41"/>
       <c r="H72" s="41"/>
       <c r="I72" s="41"/>
       <c r="J72" s="41"/>
       <c r="K72" s="63"/>
-      <c r="L72"/>
+      <c r="L72" s="46"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="43" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C73" s="99">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D73" s="52"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="41"/>
       <c r="I73" s="41"/>
@@ -5255,123 +5268,120 @@
       <c r="A74" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="43"/>
+      <c r="B74" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="99">
+        <v>8</v>
+      </c>
+      <c r="D74" s="52"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="10"/>
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
       <c r="J74" s="41"/>
       <c r="K74" s="63"/>
       <c r="L74"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="43"/>
+      <c r="A75" s="43" t="s">
+        <v>86</v>
+      </c>
       <c r="B75" s="45"/>
       <c r="C75" s="99"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
+      <c r="G75" s="43"/>
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
       <c r="J75" s="41"/>
       <c r="K75" s="63"/>
       <c r="L75"/>
-    </row>
-    <row r="76" spans="1:15" ht="15.4">
-      <c r="A76" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B76" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" s="99">
-        <v>1</v>
-      </c>
-      <c r="D76" s="36"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="43"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="99"/>
+      <c r="D76" s="41"/>
       <c r="E76" s="41"/>
-      <c r="H76" s="113"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
       <c r="I76" s="41"/>
       <c r="J76" s="41"/>
       <c r="K76" s="63"/>
       <c r="L76"/>
     </row>
-    <row r="77" spans="1:15" ht="15.75" thickBot="1">
+    <row r="77" spans="1:15" ht="15.5">
       <c r="A77" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C77" s="88">
-        <v>2</v>
-      </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="59"/>
+      <c r="B77" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="99">
+        <v>1</v>
+      </c>
+      <c r="D77" s="36"/>
+      <c r="E77" s="41"/>
       <c r="H77" s="113"/>
       <c r="I77" s="41"/>
       <c r="J77" s="41"/>
       <c r="K77" s="63"/>
       <c r="L77"/>
     </row>
-    <row r="78" spans="1:15" ht="15.4">
+    <row r="78" spans="1:15" ht="16" thickBot="1">
       <c r="A78" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B78" s="41"/>
-      <c r="C78" s="99">
-        <v>3</v>
+      <c r="B78" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="88">
+        <v>2</v>
       </c>
       <c r="D78" s="41"/>
-      <c r="E78" s="40"/>
+      <c r="E78" s="59"/>
       <c r="H78" s="113"/>
       <c r="I78" s="41"/>
       <c r="J78" s="41"/>
       <c r="K78" s="63"/>
       <c r="L78"/>
-      <c r="M78" s="115" t="s">
-        <v>217</v>
-      </c>
-      <c r="N78" s="116"/>
-      <c r="O78" s="117"/>
-    </row>
-    <row r="79" spans="1:15" ht="15.4">
+    </row>
+    <row r="79" spans="1:15" ht="15.5">
       <c r="A79" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" s="88">
-        <v>4</v>
+      <c r="B79" s="41"/>
+      <c r="C79" s="99">
+        <v>3</v>
       </c>
       <c r="D79" s="41"/>
-      <c r="E79" s="57"/>
+      <c r="E79" s="40"/>
       <c r="H79" s="113"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
       <c r="K79" s="63"/>
       <c r="L79"/>
-      <c r="M79" s="118" t="s">
-        <v>196</v>
-      </c>
-      <c r="N79" s="41"/>
-      <c r="O79" s="119"/>
-    </row>
-    <row r="80" spans="1:15" ht="15.4">
+      <c r="M79" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="N79" s="116"/>
+      <c r="O79" s="117"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.5">
       <c r="A80" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C80" s="88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="57"/>
@@ -5381,89 +5391,89 @@
       <c r="K80" s="63"/>
       <c r="L80"/>
       <c r="M80" s="118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N80" s="41"/>
       <c r="O80" s="119"/>
     </row>
-    <row r="81" spans="1:15" ht="15.4">
+    <row r="81" spans="1:15" ht="15.5">
       <c r="A81" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B81" s="114" t="s">
-        <v>209</v>
+      <c r="B81" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="C81" s="88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="57"/>
       <c r="H81" s="113"/>
       <c r="I81" s="41"/>
       <c r="J81" s="41"/>
       <c r="K81" s="63"/>
       <c r="L81"/>
       <c r="M81" s="118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N81" s="41"/>
       <c r="O81" s="119"/>
     </row>
-    <row r="82" spans="1:15" ht="15.4">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:15" ht="15.5">
+      <c r="A82" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B82" s="114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C82" s="88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82" s="41"/>
-      <c r="E82" s="36"/>
+      <c r="E82" s="41"/>
       <c r="H82" s="113"/>
       <c r="I82" s="41"/>
       <c r="J82" s="41"/>
       <c r="K82" s="63"/>
       <c r="L82"/>
       <c r="M82" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="N82" s="10"/>
+        <v>198</v>
+      </c>
+      <c r="N82" s="41"/>
       <c r="O82" s="119"/>
     </row>
-    <row r="83" spans="1:15" ht="15.4">
-      <c r="A83" s="43" t="s">
+    <row r="83" spans="1:15" ht="15.5">
+      <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B83" s="114" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C83" s="88">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="36"/>
       <c r="H83" s="113"/>
       <c r="I83" s="41"/>
       <c r="J83" s="41"/>
       <c r="K83" s="63"/>
       <c r="L83"/>
       <c r="M83" s="118" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N83" s="10"/>
       <c r="O83" s="119"/>
     </row>
-    <row r="84" spans="1:15" ht="15.4">
+    <row r="84" spans="1:15" ht="15.5">
       <c r="A84" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B84" s="114" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C84" s="88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
@@ -5473,20 +5483,20 @@
       <c r="K84" s="63"/>
       <c r="L84"/>
       <c r="M84" s="118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N84" s="10"/>
       <c r="O84" s="119"/>
     </row>
-    <row r="85" spans="1:15" ht="15.4">
+    <row r="85" spans="1:15" ht="15.5">
       <c r="A85" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B85" s="114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C85" s="88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
@@ -5496,43 +5506,43 @@
       <c r="K85" s="63"/>
       <c r="L85"/>
       <c r="M85" s="118" t="s">
-        <v>202</v>
-      </c>
-      <c r="N85" s="54"/>
+        <v>201</v>
+      </c>
+      <c r="N85" s="10"/>
       <c r="O85" s="119"/>
     </row>
-    <row r="86" spans="1:15" ht="15.4">
+    <row r="86" spans="1:15" ht="15.5">
       <c r="A86" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="114" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C86" s="88">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
-      <c r="H86" s="41"/>
+      <c r="H86" s="113"/>
       <c r="I86" s="41"/>
       <c r="J86" s="41"/>
       <c r="K86" s="63"/>
       <c r="L86"/>
       <c r="M86" s="118" t="s">
-        <v>203</v>
-      </c>
-      <c r="N86" s="41"/>
+        <v>202</v>
+      </c>
+      <c r="N86" s="54"/>
       <c r="O86" s="119"/>
     </row>
-    <row r="87" spans="1:15" ht="15.4">
+    <row r="87" spans="1:15" ht="15.5">
       <c r="A87" s="43" t="s">
         <v>95</v>
       </c>
       <c r="B87" s="114" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C87" s="88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
@@ -5542,15 +5552,21 @@
       <c r="K87" s="63"/>
       <c r="L87"/>
       <c r="M87" s="118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N87" s="41"/>
       <c r="O87" s="119"/>
     </row>
-    <row r="88" spans="1:15" ht="15.4">
-      <c r="A88" s="43"/>
-      <c r="B88" s="41"/>
-      <c r="C88" s="99"/>
+    <row r="88" spans="1:15" ht="15.5">
+      <c r="A88" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="C88" s="88">
+        <v>3</v>
+      </c>
       <c r="D88" s="41"/>
       <c r="E88" s="41"/>
       <c r="H88" s="41"/>
@@ -5559,57 +5575,61 @@
       <c r="K88" s="63"/>
       <c r="L88"/>
       <c r="M88" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="N88" s="80"/>
+        <v>204</v>
+      </c>
+      <c r="N88" s="41"/>
       <c r="O88" s="119"/>
     </row>
-    <row r="89" spans="1:15" ht="14.65" thickBot="1">
+    <row r="89" spans="1:15" ht="15.5">
       <c r="A89" s="43"/>
-      <c r="B89" s="45"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="99"/>
-      <c r="D89" s="36"/>
+      <c r="D89" s="41"/>
       <c r="E89" s="41"/>
       <c r="H89" s="41"/>
       <c r="I89" s="41"/>
       <c r="J89" s="41"/>
       <c r="K89" s="63"/>
       <c r="L89"/>
-      <c r="M89" s="120"/>
-      <c r="N89" s="121"/>
-      <c r="O89" s="122"/>
-    </row>
-    <row r="90" spans="1:15" ht="14.65" thickBot="1">
-      <c r="A90" s="49"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="42"/>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="64"/>
+      <c r="M89" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="N89" s="80"/>
+      <c r="O89" s="119"/>
+    </row>
+    <row r="90" spans="1:15" ht="15" thickBot="1">
+      <c r="A90" s="43"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="63"/>
       <c r="L90"/>
-    </row>
-    <row r="91" spans="1:15" ht="14.65" thickTop="1">
-      <c r="A91" s="2"/>
-      <c r="D91" s="1"/>
-      <c r="K91" s="79"/>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="80"/>
-      <c r="B92" s="80"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="80"/>
-      <c r="I92" s="80"/>
-      <c r="K92" s="80"/>
-      <c r="L92" s="80"/>
+      <c r="M90" s="120"/>
+      <c r="N90" s="121"/>
+      <c r="O90" s="122"/>
+    </row>
+    <row r="91" spans="1:15" ht="15" thickBot="1">
+      <c r="A91" s="49"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="100"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="64"/>
+      <c r="L91"/>
+    </row>
+    <row r="92" spans="1:15" ht="15" thickTop="1">
+      <c r="A92" s="2"/>
+      <c r="D92" s="1"/>
+      <c r="K92" s="79"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="80"/>
@@ -5621,15 +5641,22 @@
       <c r="G93" s="80"/>
       <c r="H93" s="80"/>
       <c r="I93" s="80"/>
-      <c r="J93" s="80"/>
       <c r="K93" s="80"/>
       <c r="L93" s="80"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="D94" s="79"/>
-      <c r="E94" s="79"/>
-      <c r="K94" s="1"/>
-      <c r="N94"/>
+      <c r="A94" s="80"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="101"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="80"/>
+      <c r="H94" s="80"/>
+      <c r="I94" s="80"/>
+      <c r="J94" s="80"/>
+      <c r="K94" s="80"/>
+      <c r="L94" s="80"/>
     </row>
     <row r="95" spans="1:15">
       <c r="D95" s="79"/>
@@ -5644,19 +5671,9 @@
       <c r="N96"/>
     </row>
     <row r="97" spans="1:14">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97" s="94"/>
-      <c r="D97"/>
-      <c r="E97" s="55"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="79"/>
+      <c r="K97" s="1"/>
       <c r="N97"/>
     </row>
     <row r="98" spans="1:14">
@@ -5835,20 +5852,36 @@
       <c r="M108"/>
       <c r="N108"/>
     </row>
-    <row r="110" spans="1:14">
-      <c r="A110" s="1" t="s">
+    <row r="109" spans="1:14">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109" s="94"/>
+      <c r="D109"/>
+      <c r="E109" s="55"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
-      <c r="A111" s="2" t="s">
+    <row r="112" spans="1:14">
+      <c r="A112" s="2" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
@@ -5857,7 +5890,7 @@
     <oddFooter>&amp;R&amp;8&amp;F</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="59" max="16383" man="1"/>
+    <brk id="60" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -5871,7 +5904,7 @@
       <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
